--- a/6/affine/regression.xlsx
+++ b/6/affine/regression.xlsx
@@ -1266,9 +1266,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.1287813339835613E-2"/>
-          <c:y val="2.1393645535639917E-2"/>
-          <c:w val="0.88139589326014411"/>
-          <c:h val="0.8975478419919779"/>
+          <c:y val="2.1393645535639924E-2"/>
+          <c:w val="0.88139589326014423"/>
+          <c:h val="0.89754784199197779"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1309,13 +1309,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>639</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>639</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1336,25 +1336,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1381,25 +1381,25 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.7053025658242404E-13</c:v>
+                  <c:v>6.8212102632969618E-13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.00000000000023</c:v>
+                  <c:v>639.00000000000023</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.00000000000026</c:v>
+                  <c:v>639.00000000000023</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.8212102632969618E-13</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1414,25 +1414,25 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100.00000000000006</c:v>
+                  <c:v>6.8212102632969618E-13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.00000000000023</c:v>
+                  <c:v>6.8212102632969618E-13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1368683772161603E-13</c:v>
+                  <c:v>479.00000000000057</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>479.00000000000057</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1471,13 +1471,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>470</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1489,7 +1489,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1504,25 +1504,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1531,30 +1531,29 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="113755648"/>
-        <c:axId val="113757184"/>
+        <c:axId val="115930624"/>
+        <c:axId val="115932160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113755648"/>
+        <c:axId val="115930624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="110"/>
+          <c:max val="1000"/>
           <c:min val="-10"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113757184"/>
+        <c:crossAx val="115932160"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113757184"/>
+        <c:axId val="115932160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="110"/>
+          <c:max val="1000"/>
           <c:min val="-10"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -1567,10 +1566,10 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113755648"/>
+        <c:crossAx val="115930624"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="50"/>
         <c:minorUnit val="2"/>
       </c:valAx>
     </c:plotArea>
@@ -1943,7 +1942,7 @@
   <dimension ref="A2:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="18.75"/>
@@ -2126,43 +2125,43 @@
         <v>1</v>
       </c>
       <c r="C7" s="22">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D7" s="19">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E7" s="19">
         <v>0</v>
       </c>
       <c r="F7" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" ref="G7:G14" si="0">$K7*($J$24*C7+$J$25*D7+$J$26)</f>
-        <v>1.7053025658242404E-13</v>
+        <v>6.8212102632969618E-13</v>
       </c>
       <c r="H7" s="44">
         <f t="shared" ref="H7:H14" si="1">$K7*($J$28*C7+$J$29*D7+$J$30)</f>
-        <v>100.00000000000006</v>
+        <v>6.8212102632969618E-13</v>
       </c>
       <c r="I7" s="33">
         <f>$K7*ABS(G7-E7)</f>
-        <v>1.7053025658242404E-13</v>
+        <v>6.8212102632969618E-13</v>
       </c>
       <c r="J7" s="33">
         <f>$K7*ABS(H7-F7)</f>
-        <v>5.6843418860808015E-14</v>
+        <v>6.8212102632969618E-13</v>
       </c>
       <c r="K7" s="47">
         <v>1</v>
       </c>
       <c r="M7" s="23">
         <f>$K7*(C7)</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N7" s="20">
         <f>$K7*D7</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O7" s="20">
         <f t="shared" ref="O7:P7" si="2">$K7*E7</f>
@@ -2170,19 +2169,19 @@
       </c>
       <c r="P7" s="20">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="20">
         <f>K7*C7*C7</f>
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="R7" s="20">
         <f>K7*D7*D7</f>
-        <v>4900</v>
+        <v>10000</v>
       </c>
       <c r="S7" s="20">
         <f>K7*C7*D7</f>
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="T7" s="20">
         <f>K7*C7*E7</f>
@@ -2194,29 +2193,21 @@
       </c>
       <c r="V7" s="20">
         <f>K7*C7*F7</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="W7" s="43">
         <f>K7*D7*F7</f>
-        <v>7000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:24">
       <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
-        <v>45</v>
-      </c>
-      <c r="D8" s="20">
-        <v>86</v>
-      </c>
-      <c r="E8" s="20">
-        <v>50</v>
-      </c>
-      <c r="F8" s="17">
-        <v>100</v>
-      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2286,24 +2277,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="6">
-        <v>470</v>
+        <v>320</v>
       </c>
       <c r="D9" s="20">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E9" s="20">
-        <v>100</v>
+        <v>639</v>
       </c>
       <c r="F9" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="36">
         <f t="shared" si="0"/>
-        <v>100.00000000000023</v>
+        <v>639.00000000000023</v>
       </c>
       <c r="H9" s="45">
         <f t="shared" si="1"/>
-        <v>100.00000000000023</v>
+        <v>6.8212102632969618E-13</v>
       </c>
       <c r="I9" s="35">
         <f t="shared" si="3"/>
@@ -2311,72 +2302,64 @@
       </c>
       <c r="J9" s="35">
         <f t="shared" si="4"/>
-        <v>2.2737367544323206E-13</v>
+        <v>6.8212102632969618E-13</v>
       </c>
       <c r="K9" s="28">
         <v>1</v>
       </c>
       <c r="M9" s="23">
         <f t="shared" si="5"/>
-        <v>470</v>
+        <v>320</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="6"/>
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="O9" s="20">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>639</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="20">
         <f t="shared" si="9"/>
-        <v>220900</v>
+        <v>102400</v>
       </c>
       <c r="R9" s="20">
         <f t="shared" si="10"/>
-        <v>57600</v>
+        <v>10000</v>
       </c>
       <c r="S9" s="20">
         <f t="shared" si="11"/>
-        <v>112800</v>
+        <v>32000</v>
       </c>
       <c r="T9" s="20">
         <f t="shared" si="12"/>
-        <v>47000</v>
+        <v>204480</v>
       </c>
       <c r="U9" s="20">
         <f t="shared" si="13"/>
-        <v>24000</v>
+        <v>63900</v>
       </c>
       <c r="V9" s="20">
         <f t="shared" si="14"/>
-        <v>47000</v>
+        <v>0</v>
       </c>
       <c r="W9" s="43">
         <f t="shared" si="15"/>
-        <v>24000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:24">
       <c r="B10" s="13">
         <v>4</v>
       </c>
-      <c r="C10" s="6">
-        <v>85</v>
-      </c>
-      <c r="D10" s="20">
-        <v>42</v>
-      </c>
-      <c r="E10" s="20">
-        <v>100</v>
-      </c>
-      <c r="F10" s="17">
-        <v>50</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2449,29 +2432,29 @@
         <v>320</v>
       </c>
       <c r="D11" s="20">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="E11" s="20">
-        <v>100</v>
+        <v>639</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="G11" s="36">
         <f t="shared" si="0"/>
-        <v>100.00000000000026</v>
+        <v>639.00000000000023</v>
       </c>
       <c r="H11" s="45">
         <f t="shared" si="1"/>
-        <v>1.1368683772161603E-13</v>
+        <v>479.00000000000057</v>
       </c>
       <c r="I11" s="35">
         <f t="shared" si="3"/>
-        <v>2.5579538487363607E-13</v>
+        <v>2.2737367544323206E-13</v>
       </c>
       <c r="J11" s="35">
         <f t="shared" si="4"/>
-        <v>1.1368683772161603E-13</v>
+        <v>5.6843418860808015E-13</v>
       </c>
       <c r="K11" s="28">
         <v>1</v>
@@ -2482,15 +2465,15 @@
       </c>
       <c r="N11" s="20">
         <f t="shared" si="6"/>
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="O11" s="20">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>639</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="Q11" s="20">
         <f t="shared" si="9"/>
@@ -2498,45 +2481,37 @@
       </c>
       <c r="R11" s="20">
         <f t="shared" si="10"/>
-        <v>168100</v>
+        <v>57600</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="11"/>
-        <v>131200</v>
+        <v>76800</v>
       </c>
       <c r="T11" s="20">
         <f t="shared" si="12"/>
-        <v>32000</v>
+        <v>204480</v>
       </c>
       <c r="U11" s="20">
         <f t="shared" si="13"/>
-        <v>41000</v>
+        <v>153360</v>
       </c>
       <c r="V11" s="20">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>153280</v>
       </c>
       <c r="W11" s="43">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>114960</v>
       </c>
     </row>
     <row r="12" spans="2:24">
       <c r="B12" s="13">
         <v>6</v>
       </c>
-      <c r="C12" s="6">
-        <v>48</v>
-      </c>
-      <c r="D12" s="20">
-        <v>18</v>
-      </c>
-      <c r="E12" s="20">
-        <v>50</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2606,7 +2581,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="6">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20">
         <v>240</v>
@@ -2615,34 +2590,34 @@
         <v>0</v>
       </c>
       <c r="F13" s="17">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="G13" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.8212102632969618E-13</v>
       </c>
       <c r="H13" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>479.00000000000057</v>
       </c>
       <c r="I13" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.8212102632969618E-13</v>
       </c>
       <c r="J13" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.6843418860808015E-13</v>
       </c>
       <c r="K13" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="O13" s="20">
         <f t="shared" si="7"/>
@@ -2650,19 +2625,19 @@
       </c>
       <c r="P13" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="Q13" s="20">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="R13" s="20">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>57600</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="T13" s="20">
         <f t="shared" si="12"/>
@@ -2674,29 +2649,21 @@
       </c>
       <c r="V13" s="20">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>47900</v>
       </c>
       <c r="W13" s="43">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>114960</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="19.5" thickBot="1">
       <c r="B14" s="14">
         <v>8</v>
       </c>
-      <c r="C14" s="9">
-        <v>14</v>
-      </c>
-      <c r="D14" s="21">
-        <v>45</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>50</v>
-      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2767,19 +2734,19 @@
       </c>
       <c r="C15" s="24">
         <f>SUM(C7:C14)</f>
-        <v>1422</v>
+        <v>840</v>
       </c>
       <c r="D15" s="21">
         <f>SUM(D7:D14)</f>
-        <v>1151</v>
+        <v>680</v>
       </c>
       <c r="E15" s="21">
         <f>SUM(E7:E14)</f>
-        <v>400</v>
+        <v>1278</v>
       </c>
       <c r="F15" s="42">
         <f>SUM(F7:F14)</f>
-        <v>400</v>
+        <v>958</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>11</v>
@@ -2789,47 +2756,47 @@
       </c>
       <c r="M15" s="24">
         <f t="shared" ref="M15:W15" si="16">SUM(M7:M14)</f>
-        <v>1090</v>
+        <v>840</v>
       </c>
       <c r="N15" s="21">
         <f t="shared" si="16"/>
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="O15" s="21">
         <f t="shared" si="16"/>
-        <v>200</v>
+        <v>1278</v>
       </c>
       <c r="P15" s="21">
         <f t="shared" si="16"/>
-        <v>200</v>
+        <v>958</v>
       </c>
       <c r="Q15" s="15">
         <f t="shared" si="16"/>
-        <v>413300</v>
+        <v>224800</v>
       </c>
       <c r="R15" s="21">
         <f t="shared" si="16"/>
-        <v>230600</v>
+        <v>135200</v>
       </c>
       <c r="S15" s="21">
         <f t="shared" si="16"/>
-        <v>265000</v>
+        <v>142800</v>
       </c>
       <c r="T15" s="10">
         <f t="shared" si="16"/>
-        <v>79000</v>
+        <v>408960</v>
       </c>
       <c r="U15" s="21">
         <f t="shared" si="16"/>
-        <v>65000</v>
+        <v>217260</v>
       </c>
       <c r="V15" s="21">
         <f t="shared" si="16"/>
-        <v>77000</v>
+        <v>201180</v>
       </c>
       <c r="W15" s="42">
         <f t="shared" si="16"/>
-        <v>31000</v>
+        <v>229920</v>
       </c>
     </row>
     <row r="16" spans="2:24">
@@ -2857,43 +2824,43 @@
     <row r="19" spans="1:10">
       <c r="B19" s="6">
         <f>Q15</f>
-        <v>413300</v>
+        <v>224800</v>
       </c>
       <c r="C19" s="7">
         <f>S15</f>
-        <v>265000</v>
+        <v>142800</v>
       </c>
       <c r="D19" s="8">
         <f>M15</f>
-        <v>1090</v>
+        <v>840</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="6">
         <f>S15</f>
-        <v>265000</v>
+        <v>142800</v>
       </c>
       <c r="C20" s="7">
         <f>R15</f>
-        <v>230600</v>
+        <v>135200</v>
       </c>
       <c r="D20" s="8">
         <f>N15</f>
-        <v>720</v>
+        <v>680</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.5" thickBot="1">
       <c r="B21" s="9">
         <f>M15</f>
-        <v>1090</v>
+        <v>840</v>
       </c>
       <c r="C21" s="10">
         <f>N15</f>
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="D21" s="11">
         <f>COUNTIF(K7:K14,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2904,22 +2871,22 @@
       <c r="C24" s="8"/>
       <c r="D24" s="1">
         <f t="array" ref="D24:F26">MINVERSE(B19:D21)</f>
-        <v>5.8593750000000018E-5</v>
+        <v>2.0661157024793383E-5</v>
       </c>
       <c r="E24" s="1">
-        <v>-3.446691176470607E-6</v>
+        <v>-7.9019432357662384E-21</v>
       </c>
       <c r="F24" s="8">
-        <v>-2.0461856617647062E-2</v>
+        <v>-4.3388429752066098E-3</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13">
         <f>T15</f>
-        <v>79000</v>
+        <v>408960</v>
       </c>
       <c r="J24" s="52">
         <f>D24*$H$24+E24*$H$25+F24*$H$26</f>
-        <v>0.3125</v>
+        <v>2.9045454545454525</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2931,27 +2898,27 @@
         <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>-3.4466911764705638E-6</v>
+        <v>-9.9820074525947175E-21</v>
       </c>
       <c r="E25" s="1">
-        <v>1.7503784602076124E-5</v>
+        <v>5.1020408163265288E-5</v>
       </c>
       <c r="F25" s="8">
-        <v>-2.9486105103806314E-3</v>
+        <v>-8.6734693877550968E-3</v>
       </c>
       <c r="G25" s="31" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="13">
         <f>U15</f>
-        <v>65000</v>
+        <v>217260</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J25" s="52">
         <f t="shared" ref="J25:J26" si="17">D25*$H$24+E25*$H$25+F25*$H$26</f>
-        <v>0.2757352941176473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2961,22 +2928,22 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="1">
-        <v>-2.0461856617647073E-2</v>
+        <v>-4.3388429752066089E-3</v>
       </c>
       <c r="E26" s="1">
-        <v>-2.9486105103806153E-3</v>
+        <v>-8.6734693877550968E-3</v>
       </c>
       <c r="F26" s="8">
-        <v>8.4754744269031175</v>
+        <v>2.6356468207117545</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13">
         <f>O15</f>
-        <v>200</v>
+        <v>1278</v>
       </c>
       <c r="J26" s="52">
         <f t="shared" si="17"/>
-        <v>-113.05147058823513</v>
+        <v>-290.45454545454459</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2987,22 +2954,22 @@
       <c r="C28" s="8"/>
       <c r="D28" s="1">
         <f t="array" ref="D28:F30">MINVERSE(B19:D21)</f>
-        <v>5.8593750000000018E-5</v>
+        <v>2.0661157024793383E-5</v>
       </c>
       <c r="E28" s="1">
-        <v>-3.446691176470607E-6</v>
+        <v>-7.9019432357662384E-21</v>
       </c>
       <c r="F28" s="8">
-        <v>-2.0461856617647062E-2</v>
+        <v>-4.3388429752066098E-3</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13">
         <f>V15</f>
-        <v>77000</v>
+        <v>201180</v>
       </c>
       <c r="J28" s="52">
         <f>D28*$H$28+E28*$H$29+F28*$H$30</f>
-        <v>0.31250000000000089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3014,27 +2981,27 @@
         <v>2</v>
       </c>
       <c r="D29" s="1">
-        <v>-3.4466911764705638E-6</v>
+        <v>-9.9820074525947175E-21</v>
       </c>
       <c r="E29" s="1">
-        <v>1.7503784602076124E-5</v>
+        <v>5.1020408163265288E-5</v>
       </c>
       <c r="F29" s="8">
-        <v>-2.9486105103806314E-3</v>
+        <v>-8.6734693877550968E-3</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>0</v>
       </c>
       <c r="H29" s="13">
         <f>W15</f>
-        <v>31000</v>
+        <v>229920</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J29" s="52">
         <f t="shared" ref="J29:J30" si="18">D29*$H$28+E29*$H$29+F29*$H$30</f>
-        <v>-0.31249999999999989</v>
+        <v>3.4214285714285708</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3044,22 +3011,22 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="1">
-        <v>-2.0461856617647073E-2</v>
+        <v>-4.3388429752066089E-3</v>
       </c>
       <c r="E30" s="1">
-        <v>-2.9486105103806153E-3</v>
+        <v>-8.6734693877550968E-3</v>
       </c>
       <c r="F30" s="8">
-        <v>8.4754744269031175</v>
+        <v>2.6356468207117545</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13">
         <f>P15</f>
-        <v>200</v>
+        <v>958</v>
       </c>
       <c r="J30" s="52">
         <f t="shared" si="18"/>
-        <v>28.124999999999773</v>
+        <v>-342.14285714285643</v>
       </c>
     </row>
   </sheetData>
